--- a/2024/WGBYC2TAF/output/TOR_A_long_table.xlsx
+++ b/2024/WGBYC2TAF/output/TOR_A_long_table.xlsx
@@ -13692,10 +13692,10 @@
         <v>158</v>
       </c>
       <c r="J375" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K375" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13797,10 +13797,10 @@
         <v>160</v>
       </c>
       <c r="J378" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="K378" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379">
@@ -13832,10 +13832,10 @@
         <v>161</v>
       </c>
       <c r="J379" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K379" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -13902,10 +13902,10 @@
         <v>162</v>
       </c>
       <c r="J381" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K381" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -14593,10 +14593,10 @@
         <v>70</v>
       </c>
       <c r="J402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K402" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403">
@@ -14803,10 +14803,10 @@
         <v>158</v>
       </c>
       <c r="J408" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K408" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409">
@@ -14838,10 +14838,10 @@
         <v>170</v>
       </c>
       <c r="J409" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K409" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="410">
@@ -14873,10 +14873,10 @@
         <v>160</v>
       </c>
       <c r="J410" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="K410" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411">
@@ -14908,10 +14908,10 @@
         <v>161</v>
       </c>
       <c r="J411" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K411" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -14978,10 +14978,10 @@
         <v>162</v>
       </c>
       <c r="J413" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K413" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="414">
@@ -20875,10 +20875,10 @@
         <v>70</v>
       </c>
       <c r="J584" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="K584" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="585">
@@ -21015,10 +21015,10 @@
         <v>158</v>
       </c>
       <c r="J588" t="n">
-        <v>-46</v>
+        <v>8</v>
       </c>
       <c r="K588" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="589">
@@ -21050,10 +21050,10 @@
         <v>170</v>
       </c>
       <c r="J589" t="n">
-        <v>71.75</v>
+        <v>125.75</v>
       </c>
       <c r="K589" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="590">
@@ -21120,10 +21120,10 @@
         <v>162</v>
       </c>
       <c r="J591" t="n">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="K591" t="n">
-        <v>-18</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592">
@@ -22590,10 +22590,10 @@
         <v>70</v>
       </c>
       <c r="J633" t="n">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="K633" t="n">
-        <v>-12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="634">
@@ -22765,10 +22765,10 @@
         <v>158</v>
       </c>
       <c r="J638" t="n">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="K638" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="639">
@@ -22800,10 +22800,10 @@
         <v>170</v>
       </c>
       <c r="J639" t="n">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="K639" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="640">
@@ -22870,10 +22870,10 @@
         <v>162</v>
       </c>
       <c r="J641" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K641" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="642">
@@ -23500,10 +23500,10 @@
         <v>70</v>
       </c>
       <c r="J659" t="n">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="K659" t="n">
-        <v>-13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="660">
@@ -23710,10 +23710,10 @@
         <v>158</v>
       </c>
       <c r="J665" t="n">
-        <v>-28</v>
+        <v>26</v>
       </c>
       <c r="K665" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="666">
@@ -23745,10 +23745,10 @@
         <v>170</v>
       </c>
       <c r="J666" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="K666" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="667">
@@ -23815,10 +23815,10 @@
         <v>160</v>
       </c>
       <c r="J668" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K668" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -23850,10 +23850,10 @@
         <v>162</v>
       </c>
       <c r="J669" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="K669" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="670">
@@ -24285,10 +24285,10 @@
         <v>199</v>
       </c>
       <c r="J682" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K682" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683">
@@ -24355,10 +24355,10 @@
         <v>70</v>
       </c>
       <c r="J684" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K684" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="685">
@@ -24495,10 +24495,10 @@
         <v>158</v>
       </c>
       <c r="J688" t="n">
-        <v>-31</v>
+        <v>23</v>
       </c>
       <c r="K688" t="n">
-        <v>-8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="689">
@@ -24530,10 +24530,10 @@
         <v>170</v>
       </c>
       <c r="J689" t="n">
-        <v>-21.82</v>
+        <v>32.18</v>
       </c>
       <c r="K689" t="n">
-        <v>-17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="690">
@@ -24635,10 +24635,10 @@
         <v>160</v>
       </c>
       <c r="J692" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="K692" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -24705,10 +24705,10 @@
         <v>162</v>
       </c>
       <c r="J694" t="n">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="K694" t="n">
-        <v>243</v>
+        <v>297</v>
       </c>
     </row>
     <row r="695">
@@ -29872,10 +29872,10 @@
         <v>144</v>
       </c>
       <c r="J843" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K843" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="844">
@@ -30257,10 +30257,10 @@
         <v>178</v>
       </c>
       <c r="J854" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="K854" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855">
@@ -30327,10 +30327,10 @@
         <v>162</v>
       </c>
       <c r="J856" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K856" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -30688,10 +30688,10 @@
         <v>70</v>
       </c>
       <c r="J867" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="K867" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -31391,10 +31391,10 @@
         <v>70</v>
       </c>
       <c r="J888" t="n">
-        <v>-38</v>
+        <v>25</v>
       </c>
       <c r="K888" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="889">
@@ -31426,10 +31426,10 @@
         <v>39</v>
       </c>
       <c r="J889" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K889" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -31496,10 +31496,10 @@
         <v>211</v>
       </c>
       <c r="J891" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="K891" t="n">
-        <v>-14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="892">
@@ -31531,10 +31531,10 @@
         <v>212</v>
       </c>
       <c r="J892" t="n">
-        <v>-43</v>
+        <v>11</v>
       </c>
       <c r="K892" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="893">
@@ -31636,10 +31636,10 @@
         <v>178</v>
       </c>
       <c r="J895" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="K895" t="n">
-        <v>-14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="896">
@@ -31706,10 +31706,10 @@
         <v>160</v>
       </c>
       <c r="J897" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K897" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -31741,10 +31741,10 @@
         <v>162</v>
       </c>
       <c r="J898" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="K898" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="899">
@@ -32763,10 +32763,10 @@
         <v>70</v>
       </c>
       <c r="J928" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="K928" t="n">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="929">
@@ -33078,10 +33078,10 @@
         <v>158</v>
       </c>
       <c r="J937" t="n">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="K937" t="n">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="938">
@@ -33113,10 +33113,10 @@
         <v>170</v>
       </c>
       <c r="J938" t="n">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="K938" t="n">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="939">
@@ -33183,10 +33183,10 @@
         <v>160</v>
       </c>
       <c r="J940" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K940" t="n">
-        <v>-17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="941">
@@ -33218,10 +33218,10 @@
         <v>162</v>
       </c>
       <c r="J941" t="n">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="K941" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="942">
